--- a/biology/Zoologie/Coryllis_à_tête_bleue/Coryllis_à_tête_bleue.xlsx
+++ b/biology/Zoologie/Coryllis_à_tête_bleue/Coryllis_à_tête_bleue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coryllis_%C3%A0_t%C3%AAte_bleue</t>
+          <t>Coryllis_à_tête_bleue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Loriculus galgulus
 Le Coryllis à tête bleue (Loriculus galgulus), ou Loricule à tête bleue est un psittacidé de l'Asie du sud-est. Il semble être le plus commun du genre.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coryllis_%C3%A0_t%C3%AAte_bleue</t>
+          <t>Coryllis_à_tête_bleue</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Loricule à tête bleue est un petit oiseau de 12 à 15 cm au plumage vert vif agrémenté par des nuances jaunâtres sur les flancs et le ventre. La couronne bleue ornant le sommet de la tête lui donne son nom spécifique. L'iris est marron, le bec noir et les pattes gris foncé. 
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Coryllis_%C3%A0_t%C3%AAte_bleue</t>
+          <t>Coryllis_à_tête_bleue</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,6 +562,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Coryllis_%C3%A0_t%C3%AAte_bleue</t>
+          <t>Coryllis_à_tête_bleue</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit en Birmanie, en Thaïlande, dans la péninsule malaise, à Singapour, dans les îles Anamba, à Bornéo, dans l'archipel Riau, dans les iles Bangka et Belitung, à Sumatra et sur les îles voisines de Nias, Siberut, Sipora et Enggano.
 </t>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Coryllis_%C3%A0_t%C3%AAte_bleue</t>
+          <t>Coryllis_à_tête_bleue</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,7 +622,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">vernalis
 </t>
@@ -617,7 +637,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Coryllis_%C3%A0_t%C3%AAte_bleue</t>
+          <t>Coryllis_à_tête_bleue</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,7 +655,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau peuple les forêts primaires et secondaires de plaines, mais a également été observé dans les cocoteraies et les jardins des villages, ainsi qu'en montagne.
 </t>
@@ -648,7 +670,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Coryllis_%C3%A0_t%C3%AAte_bleue</t>
+          <t>Coryllis_à_tête_bleue</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -666,9 +688,11 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le coryllis à calotte bleue dort la tête en bas, ce qui est rare chez les oiseaux[1].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le coryllis à calotte bleue dort la tête en bas, ce qui est rare chez les oiseaux.
 </t>
         </is>
       </c>
@@ -679,7 +703,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Coryllis_%C3%A0_t%C3%AAte_bleue</t>
+          <t>Coryllis_à_tête_bleue</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -697,7 +721,9 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est assez commun et répandu de façon assez homogène sur toute son aire de répartition.
 </t>
@@ -710,7 +736,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Coryllis_%C3%A0_t%C3%AAte_bleue</t>
+          <t>Coryllis_à_tête_bleue</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -730,8 +756,13 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Philatélie
-Cette espèce a été représentée en 1993 sur un timbre du Brunei et en 1994 sur un timbre d'Indonésie.
+          <t>Philatélie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été représentée en 1993 sur un timbre du Brunei et en 1994 sur un timbre d'Indonésie.
 </t>
         </is>
       </c>
